--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r111_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r111_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3448" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +604,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +651,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +697,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -794,10 +806,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -841,28 +853,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -887,28 +899,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1083,10 +1095,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1130,28 +1142,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="2">
+      <c r="C35" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1176,28 +1188,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1372,10 +1384,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1419,28 +1431,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1465,28 +1477,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1719,10 +1731,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1766,28 +1778,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="2">
+      <c r="C57" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1812,28 +1824,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2037,10 +2049,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="2" t="s">
+      <c r="J66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2084,28 +2096,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="2">
+      <c r="C68" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2130,28 +2142,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2268,10 +2280,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2315,28 +2327,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2361,28 +2373,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2557,10 +2569,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2604,28 +2616,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2650,28 +2662,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2788,10 +2800,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2835,28 +2847,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2881,28 +2893,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2961,10 +2973,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3008,28 +3020,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3054,28 +3066,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3221,10 +3233,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3268,28 +3280,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3314,28 +3326,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3394,10 +3406,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3441,28 +3453,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3487,28 +3499,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3625,10 +3637,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3672,28 +3684,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3718,28 +3730,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3798,10 +3810,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3845,28 +3857,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3891,28 +3903,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4087,10 +4099,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4134,28 +4146,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4180,28 +4192,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4405,10 +4417,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4452,28 +4464,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4498,28 +4510,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4636,10 +4648,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4683,28 +4695,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4729,28 +4741,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4809,10 +4821,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4856,28 +4868,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4902,28 +4914,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4982,10 +4994,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5029,28 +5041,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5075,28 +5087,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5155,10 +5167,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="2" t="s">
+      <c r="J174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5202,28 +5214,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5248,28 +5260,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5415,10 +5427,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5462,28 +5474,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5508,28 +5520,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5675,10 +5687,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5722,28 +5734,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5768,28 +5780,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5848,10 +5860,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5895,28 +5907,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5941,28 +5953,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6021,10 +6033,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6068,28 +6080,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6114,28 +6126,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6194,10 +6206,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6241,28 +6253,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6287,28 +6299,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6367,10 +6379,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6414,28 +6426,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6460,28 +6472,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6540,10 +6552,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6587,28 +6599,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6633,28 +6645,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6713,10 +6725,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="2" t="s">
+      <c r="J228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6760,28 +6772,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
+      <c r="A230" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="2">
+      <c r="C230" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6806,28 +6818,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="C232" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="2">
+      <c r="D232" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="2">
+      <c r="I232" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6886,10 +6898,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6933,28 +6945,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6979,28 +6991,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7059,10 +7071,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7106,28 +7118,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7152,28 +7164,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7232,10 +7244,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7279,28 +7291,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7325,28 +7337,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7405,10 +7417,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="2" t="s">
+      <c r="J252" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7452,28 +7464,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="2">
+      <c r="A254" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="2">
+      <c r="C254" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7498,28 +7510,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="2">
+      <c r="C256" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="2">
+      <c r="D256" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="2">
+      <c r="I256" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7578,10 +7590,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7625,28 +7637,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7671,28 +7683,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7751,10 +7763,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7798,28 +7810,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7844,28 +7856,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7924,10 +7936,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="2" t="s">
+      <c r="J270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7971,28 +7983,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="2">
+      <c r="A272" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="2">
+      <c r="C272" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8017,28 +8029,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="2">
+      <c r="C274" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="2">
+      <c r="D274" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="2">
+      <c r="I274" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8097,10 +8109,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="2" t="s">
+      <c r="J276" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
@@ -8144,28 +8156,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="2">
+      <c r="A278" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C278" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D278" t="s" s="2">
+      <c r="C278" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8190,28 +8202,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C280" t="s" s="2">
+      <c r="C280" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D280" t="s" s="2">
+      <c r="D280" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I280" t="s" s="2">
+      <c r="I280" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8270,10 +8282,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="2" t="s">
+      <c r="J282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8317,28 +8329,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="2">
+      <c r="A284" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="2">
+      <c r="C284" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8363,28 +8375,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="2">
+      <c r="C286" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="2">
+      <c r="D286" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="2">
+      <c r="I286" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8443,10 +8455,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="2" t="s">
+      <c r="J288" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8490,28 +8502,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="2">
+      <c r="A290" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="2">
+      <c r="C290" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8536,28 +8548,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="2">
+      <c r="C292" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="2">
+      <c r="D292" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="2">
+      <c r="I292" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8616,10 +8628,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="2" t="s">
+      <c r="J294" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8663,28 +8675,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="2">
+      <c r="A296" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="2">
+      <c r="C296" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8709,28 +8721,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="2">
+      <c r="C298" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="2">
+      <c r="D298" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="2">
+      <c r="I298" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8789,10 +8801,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="2" t="s">
+      <c r="J300" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8836,28 +8848,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="2">
+      <c r="A302" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="2">
+      <c r="C302" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8882,28 +8894,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="2">
+      <c r="C304" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="2">
+      <c r="D304" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="2">
+      <c r="I304" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8962,10 +8974,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="2" t="s">
+      <c r="J306" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
@@ -9009,28 +9021,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="s" s="2">
+      <c r="A308" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C308" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D308" t="s" s="2">
+      <c r="C308" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9055,28 +9067,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C310" t="s" s="2">
+      <c r="C310" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D310" t="s" s="2">
+      <c r="D310" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I310" t="s" s="2">
+      <c r="I310" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9135,10 +9147,10 @@
       <c r="I312">
         <f>((C312-C311)^2+(D312- D311)^2)^.5</f>
       </c>
-      <c r="J312" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K312" s="2" t="s">
+      <c r="J312" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K312" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L312" t="n">
@@ -9182,28 +9194,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="s" s="2">
+      <c r="A314" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C314" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D314" t="s" s="2">
+      <c r="C314" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D314" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9228,28 +9240,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="B316" t="s" s="2">
+      <c r="B316" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C316" t="s" s="2">
+      <c r="C316" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D316" t="s" s="2">
+      <c r="D316" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E316" t="s" s="2">
+      <c r="E316" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F316" t="s" s="2">
+      <c r="F316" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G316" t="s" s="2">
+      <c r="G316" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H316" t="s" s="2">
+      <c r="H316" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I316" t="s" s="2">
+      <c r="I316" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9308,10 +9320,10 @@
       <c r="I318">
         <f>((C318-C317)^2+(D318- D317)^2)^.5</f>
       </c>
-      <c r="J318" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K318" s="2" t="s">
+      <c r="J318" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K318" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L318" t="n">
@@ -9355,28 +9367,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="s" s="2">
+      <c r="A320" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C320" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D320" t="s" s="2">
+      <c r="C320" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9401,28 +9413,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C322" t="s" s="2">
+      <c r="C322" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D322" t="s" s="2">
+      <c r="D322" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I322" t="s" s="2">
+      <c r="I322" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9481,10 +9493,10 @@
       <c r="I324">
         <f>((C324-C323)^2+(D324- D323)^2)^.5</f>
       </c>
-      <c r="J324" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K324" s="2" t="s">
+      <c r="J324" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K324" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L324" t="n">
@@ -9528,28 +9540,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="s" s="2">
+      <c r="A326" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C326" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D326" t="s" s="2">
+      <c r="C326" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D326" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9574,28 +9586,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="B328" t="s" s="2">
+      <c r="B328" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C328" t="s" s="2">
+      <c r="C328" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D328" t="s" s="2">
+      <c r="D328" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E328" t="s" s="2">
+      <c r="E328" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F328" t="s" s="2">
+      <c r="F328" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G328" t="s" s="2">
+      <c r="G328" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H328" t="s" s="2">
+      <c r="H328" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I328" t="s" s="2">
+      <c r="I328" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9654,10 +9666,10 @@
       <c r="I330">
         <f>((C330-C329)^2+(D330- D329)^2)^.5</f>
       </c>
-      <c r="J330" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K330" s="2" t="s">
+      <c r="J330" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K330" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L330" t="n">
@@ -9701,28 +9713,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="s" s="2">
+      <c r="A332" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B332" t="s" s="2">
+      <c r="B332" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C332" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D332" t="s" s="2">
+      <c r="C332" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D332" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E332" t="s" s="2">
+      <c r="E332" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F332" t="s" s="2">
+      <c r="F332" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G332" t="s" s="2">
+      <c r="G332" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H332" t="s" s="2">
+      <c r="H332" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9747,28 +9759,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="B334" t="s" s="2">
+      <c r="B334" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C334" t="s" s="2">
+      <c r="C334" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D334" t="s" s="2">
+      <c r="D334" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E334" t="s" s="2">
+      <c r="E334" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F334" t="s" s="2">
+      <c r="F334" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G334" t="s" s="2">
+      <c r="G334" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H334" t="s" s="2">
+      <c r="H334" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I334" t="s" s="2">
+      <c r="I334" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9827,10 +9839,10 @@
       <c r="I336">
         <f>((C336-C335)^2+(D336- D335)^2)^.5</f>
       </c>
-      <c r="J336" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K336" s="2" t="s">
+      <c r="J336" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K336" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L336" t="n">
